--- a/data/trans_media/IQ23-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ23-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 10,87</t>
+          <t>9,39; 10,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 9,99</t>
+          <t>9,14; 10,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 10,54</t>
+          <t>9,18; 10,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 9,81</t>
+          <t>8,41; 9,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 10,29</t>
+          <t>9,02; 10,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 9,88</t>
+          <t>8,8; 9,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 11,21</t>
+          <t>9,44; 11,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 9,49</t>
+          <t>8,66; 9,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 10,29</t>
+          <t>9,32; 10,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 9,77</t>
+          <t>9,13; 9,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 10,64</t>
+          <t>9,48; 10,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 9,48</t>
+          <t>8,77; 9,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 9,88</t>
+          <t>9,38; 9,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 10,18</t>
+          <t>9,56; 10,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 9,83</t>
+          <t>9,42; 9,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 9,24</t>
+          <t>8,85; 9,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 10,03</t>
+          <t>9,55; 9,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 10,1</t>
+          <t>9,62; 10,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 10,11</t>
+          <t>9,66; 10,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 9,27</t>
+          <t>8,94; 9,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 10,05</t>
+          <t>9,65; 10,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 9,91</t>
+          <t>9,58; 9,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 9,19</t>
+          <t>8,94; 9,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 9,91</t>
+          <t>9,56; 9,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 10,17</t>
+          <t>9,76; 10,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 9,65</t>
+          <t>9,34; 9,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 9,34</t>
+          <t>9,09; 9,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 9,93</t>
+          <t>9,55; 9,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 10,0</t>
+          <t>9,6; 10,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 9,68</t>
+          <t>9,33; 9,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 9,27</t>
+          <t>9,02; 9,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 9,87</t>
+          <t>9,62; 9,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 10,01</t>
+          <t>9,73; 10,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 9,6</t>
+          <t>9,38; 9,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 9,27</t>
+          <t>9,1; 9,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 9,8</t>
+          <t>9,38; 9,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 10,11</t>
+          <t>9,7; 10,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 9,48</t>
+          <t>9,15; 9,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 9,74</t>
+          <t>9,33; 9,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 10,14</t>
+          <t>9,63; 10,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 9,37</t>
+          <t>9,07; 9,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 9,69</t>
+          <t>9,42; 9,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 9,58</t>
+          <t>9,32; 9,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 9,15</t>
+          <t>8,93; 9,17</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 9,73</t>
+          <t>9,42; 9,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 9,83</t>
+          <t>9,45; 9,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 9,81</t>
+          <t>9,42; 9,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 9,72</t>
+          <t>9,38; 9,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 9,98</t>
+          <t>9,58; 9,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 9,7</t>
+          <t>9,37; 9,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 9,67</t>
+          <t>9,44; 9,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 9,86</t>
+          <t>9,55; 9,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,45; 9,72</t>
+          <t>9,44; 9,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,98; 9,18</t>
+          <t>8,98; 9,19</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 9,74</t>
+          <t>9,55; 9,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,92</t>
+          <t>9,69; 9,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 9,61</t>
+          <t>9,42; 9,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 9,15</t>
+          <t>9,0; 9,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,92</t>
+          <t>9,69; 9,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 9,7</t>
+          <t>9,51; 9,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,06; 9,21</t>
+          <t>9,07; 9,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 9,88</t>
+          <t>9,73; 9,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
